--- a/doc/revision/revision_tables.xlsx
+++ b/doc/revision/revision_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamklie/Desktop/lab/projects/PredictMEE/doc/revision/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61553108-A580-6946-B40B-3B4F3CD62D7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1752409B-82C1-4041-94EE-747348714047}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="19580" activeTab="2" xr2:uid="{964FD5D5-A3AE-0C4F-B069-AD73688C4008}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16180" activeTab="2" xr2:uid="{964FD5D5-A3AE-0C4F-B069-AD73688C4008}"/>
   </bookViews>
   <sheets>
     <sheet name="Incorrect Age Predictions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="187">
   <si>
     <t>Age</t>
   </si>
@@ -543,6 +543,60 @@
   </si>
   <si>
     <t>Exclude Unigrams</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Trial 2</t>
+  </si>
+  <si>
+    <t>Trial 3</t>
+  </si>
+  <si>
+    <t>Trial 4</t>
+  </si>
+  <si>
+    <t>Trial 5</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Trial Prediction Accuracy</t>
+  </si>
+  <si>
+    <t>Category Name</t>
+  </si>
+  <si>
+    <t># TITLES</t>
+  </si>
+  <si>
+    <t># Predicted</t>
+  </si>
+  <si>
+    <t># Correct</t>
+  </si>
+  <si>
+    <t>TITLES</t>
+  </si>
+  <si>
+    <t>Trial 6</t>
+  </si>
+  <si>
+    <t>Trial 10</t>
+  </si>
+  <si>
+    <t>Trial 9</t>
+  </si>
+  <si>
+    <t>Trial 8</t>
+  </si>
+  <si>
+    <t>Trial 7</t>
   </si>
 </sst>
 </file>
@@ -551,9 +605,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -569,8 +623,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.95"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,8 +677,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor theme="6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -635,11 +735,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -665,10 +831,50 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3753,16 +3959,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1318EAF2-534A-8149-8547-2F45591EF9F3}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>132</v>
       </c>
@@ -3779,7 +3987,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0.7</v>
       </c>
@@ -3796,7 +4004,7 @@
         <v>0.71518800000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>0.8</v>
       </c>
@@ -3813,7 +4021,7 @@
         <v>0.85016626531850104</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>0.9</v>
       </c>
@@ -3830,7 +4038,7 @@
         <v>0.91328399999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>165</v>
       </c>
@@ -3846,6 +4054,274 @@
       <c r="E5" s="11">
         <v>0.829233</v>
       </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>1</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.85211805912083105</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0.85079087811607801</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.85211805912083105</v>
+      </c>
+      <c r="E9" s="17">
+        <v>0.85016626531850104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.84685999999999995</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.84651699999999996</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.84685999999999995</v>
+      </c>
+      <c r="E10" s="11">
+        <v>0.84421800000000002</v>
+      </c>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>3</v>
+      </c>
+      <c r="B11" s="16">
+        <v>0.85093099999999999</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.85118199999999999</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.85093099999999999</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.84864899999999999</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>4</v>
+      </c>
+      <c r="B12" s="16">
+        <v>0.84886700000000004</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.85168299999999997</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.84886700000000004</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.84685299999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>5</v>
+      </c>
+      <c r="B13" s="16">
+        <v>0.84963100000000003</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.84828700000000001</v>
+      </c>
+      <c r="D13" s="11">
+        <v>0.84963100000000003</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.84786300000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>6</v>
+      </c>
+      <c r="B14" s="16">
+        <v>0.84923199999999999</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.84809400000000001</v>
+      </c>
+      <c r="D14" s="11">
+        <v>0.84923199999999999</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.847966</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>7</v>
+      </c>
+      <c r="B15" s="16">
+        <v>0.85022399999999998</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.85253599999999996</v>
+      </c>
+      <c r="D15" s="11">
+        <v>0.85022399999999998</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.84734100000000001</v>
+      </c>
+      <c r="J15" s="31"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>8</v>
+      </c>
+      <c r="B16" s="16">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.85201099999999996</v>
+      </c>
+      <c r="D16" s="11">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.85039799999999999</v>
+      </c>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>9</v>
+      </c>
+      <c r="B17" s="16">
+        <v>0.85336000000000001</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.85490100000000002</v>
+      </c>
+      <c r="D17" s="11">
+        <v>0.85336000000000001</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.851356</v>
+      </c>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>10</v>
+      </c>
+      <c r="B18" s="16">
+        <v>0.84631299999999998</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.84587100000000004</v>
+      </c>
+      <c r="D18" s="11">
+        <v>0.84631299999999998</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.84507500000000002</v>
+      </c>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="16">
+        <f>AVERAGE(B9:B18)</f>
+        <v>0.84994360591208307</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" ref="C19:E19" si="0">AVERAGE(C9:C18)</f>
+        <v>0.85018728781160779</v>
+      </c>
+      <c r="D19" s="11">
+        <f t="shared" si="0"/>
+        <v>0.84994360591208307</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="0"/>
+        <v>0.84798852653185008</v>
+      </c>
+      <c r="L19" s="31"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B20" s="16">
+        <f>STDEV(B9:B18)</f>
+        <v>2.2542343245007504E-3</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" ref="C20:E20" si="1">STDEV(C9:C18)</f>
+        <v>2.8818722107284951E-3</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" si="1"/>
+        <v>2.2542343245007504E-3</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="1"/>
+        <v>2.2792468060359619E-3</v>
+      </c>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="I21" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3855,10 +4331,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7F18DFB-5F9D-9C40-9042-27C9B5463787}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:AA182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3872,14 +4349,28 @@
     <col min="8" max="8" width="23" customWidth="1"/>
     <col min="10" max="10" width="14.5" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="27" max="27" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M1" s="3"/>
+      <c r="P1" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>157</v>
       </c>
@@ -3913,8 +4404,53 @@
       <c r="K2" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M2" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="O2" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="P2" s="26">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="26">
+        <v>2</v>
+      </c>
+      <c r="R2" s="26">
+        <v>3</v>
+      </c>
+      <c r="S2" s="26">
+        <v>4</v>
+      </c>
+      <c r="T2" s="26">
+        <v>5</v>
+      </c>
+      <c r="U2" s="26">
+        <v>6</v>
+      </c>
+      <c r="V2" s="26">
+        <v>7</v>
+      </c>
+      <c r="W2" s="26">
+        <v>8</v>
+      </c>
+      <c r="X2" s="26">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="26">
+        <v>10</v>
+      </c>
+      <c r="Z2" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -3948,8 +4484,56 @@
       <c r="K3" s="1">
         <v>0.44827586206896503</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O3" s="22">
+        <f>AVERAGE(C56,C69,C82,C95,C107, C120,C133,C147,C160,C173)</f>
+        <v>229.5</v>
+      </c>
+      <c r="P3" s="23">
+        <v>0.47320000000000001</v>
+      </c>
+      <c r="Q3" s="23">
+        <v>0.454166666666666</v>
+      </c>
+      <c r="R3" s="23">
+        <v>0.46460176991150398</v>
+      </c>
+      <c r="S3" s="23">
+        <v>0.45188284518828398</v>
+      </c>
+      <c r="T3" s="23">
+        <v>0.45374449339207001</v>
+      </c>
+      <c r="U3" s="19">
+        <v>0.47111111111111098</v>
+      </c>
+      <c r="V3" s="19">
+        <v>0.47161572052401701</v>
+      </c>
+      <c r="W3" s="19">
+        <v>0.47111111111111098</v>
+      </c>
+      <c r="X3" s="19">
+        <v>0.47161572052401701</v>
+      </c>
+      <c r="Y3" s="19">
+        <v>0.46320346320346301</v>
+      </c>
+      <c r="Z3" s="24">
+        <f>AVERAGE(P3:Y3)</f>
+        <v>0.46462529016322429</v>
+      </c>
+      <c r="AA3" s="24">
+        <f>STDEV(P3:Y3)</f>
+        <v>8.4823753332177228E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -3983,8 +4567,56 @@
       <c r="K4" s="1">
         <v>0.46808510638297801</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M4" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="N4" s="22">
+        <v>702</v>
+      </c>
+      <c r="O4" s="22">
+        <f t="shared" ref="O4:O12" si="0">AVERAGE(C57,C70,C83,C96,C108, C121,C134,C148,C161,C174)</f>
+        <v>230</v>
+      </c>
+      <c r="P4" s="23">
+        <v>0.47220000000000001</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>0.483333333333333</v>
+      </c>
+      <c r="R4" s="23">
+        <v>0.48739495798319299</v>
+      </c>
+      <c r="S4" s="23">
+        <v>0.51327433628318497</v>
+      </c>
+      <c r="T4" s="23">
+        <v>0.45714285714285702</v>
+      </c>
+      <c r="U4" s="19">
+        <v>0.445945945945945</v>
+      </c>
+      <c r="V4" s="19">
+        <v>0.45555555555555499</v>
+      </c>
+      <c r="W4" s="19">
+        <v>0.43718592964824099</v>
+      </c>
+      <c r="X4" s="19">
+        <v>0.50248756218905399</v>
+      </c>
+      <c r="Y4" s="19">
+        <v>0.44850498338870398</v>
+      </c>
+      <c r="Z4" s="24">
+        <f t="shared" ref="Z4:Z12" si="1">AVERAGE(P4:Y4)</f>
+        <v>0.47030254614700667</v>
+      </c>
+      <c r="AA4" s="24">
+        <f t="shared" ref="AA4:AA12" si="2">STDEV(P4:Y4)</f>
+        <v>2.5611936113645407E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>144</v>
       </c>
@@ -4018,8 +4650,56 @@
       <c r="K5" s="1">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M5" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="N5" s="22">
+        <v>122</v>
+      </c>
+      <c r="O5" s="22">
+        <f t="shared" si="0"/>
+        <v>25.6</v>
+      </c>
+      <c r="P5" s="23">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="R5" s="23">
+        <v>0.85185185185185097</v>
+      </c>
+      <c r="S5" s="23">
+        <v>0.88461538461538403</v>
+      </c>
+      <c r="T5" s="23">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="U5" s="19">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="V5" s="19">
+        <v>0.92</v>
+      </c>
+      <c r="W5" s="19">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="X5" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="Y5" s="19">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="Z5" s="24">
+        <f t="shared" si="1"/>
+        <v>0.87237364672364648</v>
+      </c>
+      <c r="AA5" s="24">
+        <f t="shared" si="2"/>
+        <v>3.8603494411845123E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>143</v>
       </c>
@@ -4047,8 +4727,56 @@
       <c r="K6" s="1">
         <v>0.83333333333333304</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M6" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="N6" s="22">
+        <v>78</v>
+      </c>
+      <c r="O6" s="22">
+        <f t="shared" si="0"/>
+        <v>12.7</v>
+      </c>
+      <c r="P6" s="23">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R6" s="23">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="S6" s="23">
+        <v>0.5625</v>
+      </c>
+      <c r="T6" s="23">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="U6" s="19">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="V6" s="19">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="W6" s="19">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="X6" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="Z6" s="24">
+        <f t="shared" si="1"/>
+        <v>0.73241508158508151</v>
+      </c>
+      <c r="AA6" s="24">
+        <f t="shared" si="2"/>
+        <v>0.16117017443556733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>142</v>
       </c>
@@ -4082,8 +4810,56 @@
       <c r="K7" s="1">
         <v>0.41340782122905001</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N7" s="22">
+        <v>595</v>
+      </c>
+      <c r="O7" s="22">
+        <f t="shared" si="0"/>
+        <v>148</v>
+      </c>
+      <c r="P7" s="23">
+        <v>0.62309999999999999</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>0.58955223880596996</v>
+      </c>
+      <c r="R7" s="23">
+        <v>0.51098901098901095</v>
+      </c>
+      <c r="S7" s="23">
+        <v>0.50887573964497002</v>
+      </c>
+      <c r="T7" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="U7" s="19">
+        <v>0.50549450549450503</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0.59154929577464699</v>
+      </c>
+      <c r="W7" s="19">
+        <v>0.57042253521126696</v>
+      </c>
+      <c r="X7" s="19">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="Y7" s="19">
+        <v>0.62886597938144295</v>
+      </c>
+      <c r="Z7" s="24">
+        <f t="shared" si="1"/>
+        <v>0.56260715275240347</v>
+      </c>
+      <c r="AA7" s="24">
+        <f t="shared" si="2"/>
+        <v>5.1213705395578776E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -4117,8 +4893,56 @@
       <c r="K8" s="1">
         <v>0.52500000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="N8" s="22">
+        <v>275</v>
+      </c>
+      <c r="O8" s="22">
+        <f t="shared" si="0"/>
+        <v>27.9</v>
+      </c>
+      <c r="P8" s="23">
+        <v>0.36670000000000003</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>0.48837209302325502</v>
+      </c>
+      <c r="R8" s="23">
+        <v>0.36666666666666597</v>
+      </c>
+      <c r="S8" s="23">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="T8" s="23">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="U8" s="19">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="V8" s="19">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="W8" s="19">
+        <v>0.48837209302325502</v>
+      </c>
+      <c r="X8" s="19">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="Y8" s="19">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="Z8" s="24">
+        <f t="shared" si="1"/>
+        <v>0.51079615400375444</v>
+      </c>
+      <c r="AA8" s="24">
+        <f t="shared" si="2"/>
+        <v>9.0385349349787009E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>140</v>
       </c>
@@ -4152,8 +4976,56 @@
       <c r="K9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="N9" s="22">
+        <v>190</v>
+      </c>
+      <c r="O9" s="22">
+        <f t="shared" si="0"/>
+        <v>11.8</v>
+      </c>
+      <c r="P9" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>1</v>
+      </c>
+      <c r="R9" s="23">
+        <v>1</v>
+      </c>
+      <c r="S9" s="23">
+        <v>1</v>
+      </c>
+      <c r="T9" s="23">
+        <v>1</v>
+      </c>
+      <c r="U9" s="19">
+        <v>1</v>
+      </c>
+      <c r="V9" s="19">
+        <v>1</v>
+      </c>
+      <c r="W9" s="19">
+        <v>1</v>
+      </c>
+      <c r="X9" s="19">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="19">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="24">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AA9" s="24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -4187,8 +5059,56 @@
       <c r="K10" s="1">
         <v>0.92615769712140095</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O10" s="22">
+        <f t="shared" si="0"/>
+        <v>765.4</v>
+      </c>
+      <c r="P10" s="23">
+        <v>0.94850000000000001</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>0.93849658314350703</v>
+      </c>
+      <c r="R10" s="23">
+        <v>0.93348623853210999</v>
+      </c>
+      <c r="S10" s="23">
+        <v>0.94208037825059099</v>
+      </c>
+      <c r="T10" s="23">
+        <v>0.93429844097995496</v>
+      </c>
+      <c r="U10" s="19">
+        <v>0.93842364532019695</v>
+      </c>
+      <c r="V10" s="19">
+        <v>0.92375690607734795</v>
+      </c>
+      <c r="W10" s="19">
+        <v>0.94472361809045202</v>
+      </c>
+      <c r="X10" s="19">
+        <v>0.94124847001223899</v>
+      </c>
+      <c r="Y10" s="19">
+        <v>0.93879907621247105</v>
+      </c>
+      <c r="Z10" s="24">
+        <f t="shared" si="1"/>
+        <v>0.93838133566188697</v>
+      </c>
+      <c r="AA10" s="24">
+        <f t="shared" si="2"/>
+        <v>6.8248794427345685E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>138</v>
       </c>
@@ -4222,8 +5142,56 @@
       <c r="K11" s="1">
         <v>0.784810126582278</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M11" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="N11" s="22">
+        <v>1000</v>
+      </c>
+      <c r="O11" s="22">
+        <f t="shared" si="0"/>
+        <v>388.6</v>
+      </c>
+      <c r="P11" s="23">
+        <v>0.82030000000000003</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>0.86445783132530096</v>
+      </c>
+      <c r="R11" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="S11" s="23">
+        <v>0.82867132867132798</v>
+      </c>
+      <c r="T11" s="23">
+        <v>0.86738351254480195</v>
+      </c>
+      <c r="U11" s="19">
+        <v>0.64966740576496596</v>
+      </c>
+      <c r="V11" s="19">
+        <v>0.81597222222222199</v>
+      </c>
+      <c r="W11" s="19">
+        <v>0.71052631578947301</v>
+      </c>
+      <c r="X11" s="19">
+        <v>0.84858044164037805</v>
+      </c>
+      <c r="Y11" s="19">
+        <v>0.80235988200589903</v>
+      </c>
+      <c r="Z11" s="24">
+        <f t="shared" si="1"/>
+        <v>0.79579189399643691</v>
+      </c>
+      <c r="AA11" s="24">
+        <f t="shared" si="2"/>
+        <v>7.1085685853885749E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>137</v>
       </c>
@@ -4257,13 +5225,61 @@
       <c r="K12" s="1">
         <v>0.625386996904024</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M12" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N12" s="25">
+        <v>1000</v>
+      </c>
+      <c r="O12" s="22">
+        <f t="shared" si="0"/>
+        <v>250.9</v>
+      </c>
+      <c r="P12" s="23">
+        <v>0.6371</v>
+      </c>
+      <c r="Q12" s="23">
+        <v>0.62126245847175998</v>
+      </c>
+      <c r="R12" s="23">
+        <v>0.62698412698412698</v>
+      </c>
+      <c r="S12" s="23">
+        <v>0.63345195729537296</v>
+      </c>
+      <c r="T12" s="23">
+        <v>0.69162995594713605</v>
+      </c>
+      <c r="U12" s="19">
+        <v>0.72139303482587003</v>
+      </c>
+      <c r="V12" s="19">
+        <v>0.621993127147766</v>
+      </c>
+      <c r="W12" s="19">
+        <v>0.67420814479638003</v>
+      </c>
+      <c r="X12" s="19">
+        <v>0.67772511848341199</v>
+      </c>
+      <c r="Y12" s="19">
+        <v>0.64137931034482698</v>
+      </c>
+      <c r="Z12" s="24">
+        <f t="shared" si="1"/>
+        <v>0.65471272342966524</v>
+      </c>
+      <c r="AA12" s="24">
+        <f t="shared" si="2"/>
+        <v>3.4346539758081489E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>157</v>
       </c>
@@ -4298,7 +5314,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4333,7 +5349,7 @@
         <v>0.47867298578199002</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>145</v>
       </c>
@@ -4368,7 +5384,7 @@
         <v>0.44981412639405199</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>144</v>
       </c>
@@ -4403,7 +5419,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>143</v>
       </c>
@@ -4432,7 +5448,7 @@
         <v>0.128205128205128</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>142</v>
       </c>
@@ -4467,7 +5483,7 @@
         <v>0.49295774647887303</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>156</v>
       </c>
@@ -4496,7 +5512,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>140</v>
       </c>
@@ -4531,7 +5547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>139</v>
       </c>
@@ -4565,8 +5581,9 @@
       <c r="K23" s="1">
         <v>0.91929382093316503</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="W23" s="19"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -4601,7 +5618,7 @@
         <v>0.76967930029154497</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -4636,12 +5653,12 @@
         <v>0.71428571428571397</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>157</v>
       </c>
@@ -4676,7 +5693,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -4711,7 +5728,7 @@
         <v>0.69387755102040805</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>145</v>
       </c>
@@ -4746,7 +5763,7 @@
         <v>0.37575757575757501</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>144</v>
       </c>
@@ -4781,7 +5798,7 @@
         <v>0.87804878048780399</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>143</v>
       </c>
@@ -5433,7 +6450,3690 @@
         <v>0.64941176470588202</v>
       </c>
     </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>1000</v>
+      </c>
+      <c r="C56">
+        <v>240</v>
+      </c>
+      <c r="D56">
+        <v>0.24</v>
+      </c>
+      <c r="E56">
+        <v>104</v>
+      </c>
+      <c r="F56">
+        <v>0.43333333333333302</v>
+      </c>
+      <c r="G56">
+        <v>67</v>
+      </c>
+      <c r="H56">
+        <v>0.27916666666666601</v>
+      </c>
+      <c r="I56">
+        <v>109</v>
+      </c>
+      <c r="J56" s="19">
+        <v>0.454166666666666</v>
+      </c>
+      <c r="K56" s="21">
+        <v>0.43333333333333302</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57">
+        <v>702</v>
+      </c>
+      <c r="C57">
+        <v>180</v>
+      </c>
+      <c r="D57">
+        <v>0.256410256410256</v>
+      </c>
+      <c r="E57">
+        <v>81</v>
+      </c>
+      <c r="F57">
+        <v>0.45</v>
+      </c>
+      <c r="G57">
+        <v>72</v>
+      </c>
+      <c r="H57">
+        <v>0.4</v>
+      </c>
+      <c r="I57">
+        <v>87</v>
+      </c>
+      <c r="J57" s="19">
+        <v>0.483333333333333</v>
+      </c>
+      <c r="K57" s="21">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58">
+        <v>122</v>
+      </c>
+      <c r="C58">
+        <v>26</v>
+      </c>
+      <c r="D58">
+        <v>0.21311475409836</v>
+      </c>
+      <c r="E58">
+        <v>21</v>
+      </c>
+      <c r="F58">
+        <v>0.80769230769230704</v>
+      </c>
+      <c r="G58">
+        <v>20</v>
+      </c>
+      <c r="H58">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I58">
+        <v>22</v>
+      </c>
+      <c r="J58" s="19">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="K58" s="21">
+        <v>0.80769230769230704</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59">
+        <v>78</v>
+      </c>
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="D59">
+        <v>0.256410256410256</v>
+      </c>
+      <c r="E59">
+        <v>11</v>
+      </c>
+      <c r="F59">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I59">
+        <v>11</v>
+      </c>
+      <c r="J59" s="19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K59" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B60">
+        <v>595</v>
+      </c>
+      <c r="C60">
+        <v>134</v>
+      </c>
+      <c r="D60">
+        <v>0.22521008403361301</v>
+      </c>
+      <c r="E60">
+        <v>63</v>
+      </c>
+      <c r="F60">
+        <v>0.47014925373134298</v>
+      </c>
+      <c r="G60">
+        <v>51</v>
+      </c>
+      <c r="H60">
+        <v>0.38059701492537301</v>
+      </c>
+      <c r="I60">
+        <v>79</v>
+      </c>
+      <c r="J60" s="19">
+        <v>0.58955223880596996</v>
+      </c>
+      <c r="K60" s="21">
+        <v>0.47014925373134298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B61">
+        <v>275</v>
+      </c>
+      <c r="C61">
+        <v>43</v>
+      </c>
+      <c r="D61">
+        <v>0.15636363636363601</v>
+      </c>
+      <c r="E61">
+        <v>21</v>
+      </c>
+      <c r="F61">
+        <v>0.48837209302325502</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
+      </c>
+      <c r="H61">
+        <v>0.13953488372093001</v>
+      </c>
+      <c r="I61">
+        <v>21</v>
+      </c>
+      <c r="J61" s="19">
+        <v>0.48837209302325502</v>
+      </c>
+      <c r="K61" s="21">
+        <v>0.48837209302325502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62">
+        <v>190</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>2.1052631578947299E-2</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62">
+        <v>0.25</v>
+      </c>
+      <c r="I62">
+        <v>4</v>
+      </c>
+      <c r="J62" s="19">
+        <v>1</v>
+      </c>
+      <c r="K62" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B63">
+        <v>1000</v>
+      </c>
+      <c r="C63">
+        <v>878</v>
+      </c>
+      <c r="D63">
+        <v>0.878</v>
+      </c>
+      <c r="E63">
+        <v>812</v>
+      </c>
+      <c r="F63">
+        <v>0.92482915717539804</v>
+      </c>
+      <c r="G63">
+        <v>773</v>
+      </c>
+      <c r="H63">
+        <v>0.88041002277904301</v>
+      </c>
+      <c r="I63">
+        <v>824</v>
+      </c>
+      <c r="J63" s="19">
+        <v>0.93849658314350703</v>
+      </c>
+      <c r="K63" s="21">
+        <v>0.92482915717539804</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64">
+        <v>1000</v>
+      </c>
+      <c r="C64">
+        <v>332</v>
+      </c>
+      <c r="D64">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="E64">
+        <v>30</v>
+      </c>
+      <c r="F64">
+        <v>9.0361445783132502E-2</v>
+      </c>
+      <c r="G64">
+        <v>286</v>
+      </c>
+      <c r="H64">
+        <v>0.86144578313252995</v>
+      </c>
+      <c r="I64">
+        <v>287</v>
+      </c>
+      <c r="J64" s="19">
+        <v>0.86445783132530096</v>
+      </c>
+      <c r="K64" s="21">
+        <v>0.86144578313252995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65">
+        <v>1000</v>
+      </c>
+      <c r="C65">
+        <v>301</v>
+      </c>
+      <c r="D65">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="E65">
+        <v>175</v>
+      </c>
+      <c r="F65">
+        <v>0.581395348837209</v>
+      </c>
+      <c r="G65">
+        <v>161</v>
+      </c>
+      <c r="H65">
+        <v>0.53488372093023195</v>
+      </c>
+      <c r="I65">
+        <v>187</v>
+      </c>
+      <c r="J65" s="19">
+        <v>0.62126245847175998</v>
+      </c>
+      <c r="K65" s="21">
+        <v>0.581395348837209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K68" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>1000</v>
+      </c>
+      <c r="C69">
+        <v>226</v>
+      </c>
+      <c r="D69">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="E69">
+        <v>102</v>
+      </c>
+      <c r="F69">
+        <v>0.45132743362831801</v>
+      </c>
+      <c r="G69">
+        <v>63</v>
+      </c>
+      <c r="H69">
+        <v>0.27876106194690198</v>
+      </c>
+      <c r="I69">
+        <v>105</v>
+      </c>
+      <c r="J69" s="19">
+        <v>0.46460176991150398</v>
+      </c>
+      <c r="K69" s="21">
+        <v>0.45132743362831801</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>145</v>
+      </c>
+      <c r="B70">
+        <v>702</v>
+      </c>
+      <c r="C70">
+        <v>238</v>
+      </c>
+      <c r="D70">
+        <v>0.33903133903133897</v>
+      </c>
+      <c r="E70">
+        <v>106</v>
+      </c>
+      <c r="F70">
+        <v>0.44537815126050401</v>
+      </c>
+      <c r="G70">
+        <v>96</v>
+      </c>
+      <c r="H70">
+        <v>0.40336134453781503</v>
+      </c>
+      <c r="I70">
+        <v>116</v>
+      </c>
+      <c r="J70" s="19">
+        <v>0.48739495798319299</v>
+      </c>
+      <c r="K70" s="21">
+        <v>0.44537815126050401</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71">
+        <v>122</v>
+      </c>
+      <c r="C71">
+        <v>27</v>
+      </c>
+      <c r="D71">
+        <v>0.22131147540983601</v>
+      </c>
+      <c r="E71">
+        <v>22</v>
+      </c>
+      <c r="F71">
+        <v>0.81481481481481399</v>
+      </c>
+      <c r="G71">
+        <v>21</v>
+      </c>
+      <c r="H71">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="I71">
+        <v>23</v>
+      </c>
+      <c r="J71" s="19">
+        <v>0.85185185185185097</v>
+      </c>
+      <c r="K71" s="21">
+        <v>0.81481481481481399</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72">
+        <v>78</v>
+      </c>
+      <c r="C72">
+        <v>11</v>
+      </c>
+      <c r="D72">
+        <v>0.141025641025641</v>
+      </c>
+      <c r="E72">
+        <v>9</v>
+      </c>
+      <c r="F72">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="I72">
+        <v>9</v>
+      </c>
+      <c r="J72" s="19">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="K72" s="21">
+        <v>0.81818181818181801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>142</v>
+      </c>
+      <c r="B73">
+        <v>595</v>
+      </c>
+      <c r="C73">
+        <v>182</v>
+      </c>
+      <c r="D73">
+        <v>0.30588235294117599</v>
+      </c>
+      <c r="E73">
+        <v>76</v>
+      </c>
+      <c r="F73">
+        <v>0.41758241758241699</v>
+      </c>
+      <c r="G73">
+        <v>53</v>
+      </c>
+      <c r="H73">
+        <v>0.29120879120879101</v>
+      </c>
+      <c r="I73">
+        <v>93</v>
+      </c>
+      <c r="J73" s="19">
+        <v>0.51098901098901095</v>
+      </c>
+      <c r="K73" s="21">
+        <v>0.41758241758241699</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74">
+        <v>275</v>
+      </c>
+      <c r="C74">
+        <v>30</v>
+      </c>
+      <c r="D74">
+        <v>0.109090909090909</v>
+      </c>
+      <c r="E74">
+        <v>11</v>
+      </c>
+      <c r="F74">
+        <v>0.36666666666666597</v>
+      </c>
+      <c r="G74">
+        <v>9</v>
+      </c>
+      <c r="H74">
+        <v>0.3</v>
+      </c>
+      <c r="I74">
+        <v>11</v>
+      </c>
+      <c r="J74" s="19">
+        <v>0.36666666666666597</v>
+      </c>
+      <c r="K74" s="21">
+        <v>0.36666666666666597</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75">
+        <v>190</v>
+      </c>
+      <c r="C75">
+        <v>24</v>
+      </c>
+      <c r="D75">
+        <v>0.12631578947368399</v>
+      </c>
+      <c r="E75">
+        <v>24</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>21</v>
+      </c>
+      <c r="H75">
+        <v>0.875</v>
+      </c>
+      <c r="I75">
+        <v>24</v>
+      </c>
+      <c r="J75" s="19">
+        <v>1</v>
+      </c>
+      <c r="K75" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76">
+        <v>1000</v>
+      </c>
+      <c r="C76">
+        <v>872</v>
+      </c>
+      <c r="D76">
+        <v>0.872</v>
+      </c>
+      <c r="E76">
+        <v>803</v>
+      </c>
+      <c r="F76">
+        <v>0.92087155963302703</v>
+      </c>
+      <c r="G76">
+        <v>761</v>
+      </c>
+      <c r="H76">
+        <v>0.87270642201834803</v>
+      </c>
+      <c r="I76">
+        <v>814</v>
+      </c>
+      <c r="J76" s="19">
+        <v>0.93348623853210999</v>
+      </c>
+      <c r="K76" s="21">
+        <v>0.92087155963302703</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>138</v>
+      </c>
+      <c r="B77">
+        <v>1000</v>
+      </c>
+      <c r="C77">
+        <v>264</v>
+      </c>
+      <c r="D77">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="E77">
+        <v>40</v>
+      </c>
+      <c r="F77">
+        <v>0.15151515151515099</v>
+      </c>
+      <c r="G77">
+        <v>196</v>
+      </c>
+      <c r="H77">
+        <v>0.74242424242424199</v>
+      </c>
+      <c r="I77">
+        <v>198</v>
+      </c>
+      <c r="J77" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="K77" s="21">
+        <v>0.74242424242424199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78">
+        <v>1000</v>
+      </c>
+      <c r="C78">
+        <v>252</v>
+      </c>
+      <c r="D78">
+        <v>0.252</v>
+      </c>
+      <c r="E78">
+        <v>147</v>
+      </c>
+      <c r="F78">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="G78">
+        <v>136</v>
+      </c>
+      <c r="H78">
+        <v>0.53968253968253899</v>
+      </c>
+      <c r="I78">
+        <v>158</v>
+      </c>
+      <c r="J78" s="19">
+        <v>0.62698412698412698</v>
+      </c>
+      <c r="K78" s="21">
+        <v>0.58333333333333304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K81" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>1000</v>
+      </c>
+      <c r="C82">
+        <v>239</v>
+      </c>
+      <c r="D82">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="E82">
+        <v>105</v>
+      </c>
+      <c r="F82">
+        <v>0.43933054393305399</v>
+      </c>
+      <c r="G82">
+        <v>77</v>
+      </c>
+      <c r="H82">
+        <v>0.32217573221757301</v>
+      </c>
+      <c r="I82">
+        <v>108</v>
+      </c>
+      <c r="J82" s="19">
+        <v>0.45188284518828398</v>
+      </c>
+      <c r="K82">
+        <v>0.43933054393305399</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83">
+        <v>702</v>
+      </c>
+      <c r="C83">
+        <v>226</v>
+      </c>
+      <c r="D83">
+        <v>0.321937321937321</v>
+      </c>
+      <c r="E83">
+        <v>103</v>
+      </c>
+      <c r="F83">
+        <v>0.45575221238938002</v>
+      </c>
+      <c r="G83">
+        <v>98</v>
+      </c>
+      <c r="H83">
+        <v>0.43362831858407003</v>
+      </c>
+      <c r="I83">
+        <v>116</v>
+      </c>
+      <c r="J83" s="19">
+        <v>0.51327433628318497</v>
+      </c>
+      <c r="K83">
+        <v>0.45575221238938002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84">
+        <v>122</v>
+      </c>
+      <c r="C84">
+        <v>26</v>
+      </c>
+      <c r="D84">
+        <v>0.21311475409836</v>
+      </c>
+      <c r="E84">
+        <v>22</v>
+      </c>
+      <c r="F84">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="G84">
+        <v>21</v>
+      </c>
+      <c r="H84">
+        <v>0.80769230769230704</v>
+      </c>
+      <c r="I84">
+        <v>23</v>
+      </c>
+      <c r="J84" s="19">
+        <v>0.88461538461538403</v>
+      </c>
+      <c r="K84">
+        <v>0.84615384615384603</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85">
+        <v>78</v>
+      </c>
+      <c r="C85">
+        <v>16</v>
+      </c>
+      <c r="D85">
+        <v>0.20512820512820501</v>
+      </c>
+      <c r="E85">
+        <v>9</v>
+      </c>
+      <c r="F85">
+        <v>0.5625</v>
+      </c>
+      <c r="I85">
+        <v>9</v>
+      </c>
+      <c r="J85" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="K85">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86">
+        <v>595</v>
+      </c>
+      <c r="C86">
+        <v>169</v>
+      </c>
+      <c r="D86">
+        <v>0.28403361344537797</v>
+      </c>
+      <c r="E86">
+        <v>70</v>
+      </c>
+      <c r="F86">
+        <v>0.414201183431952</v>
+      </c>
+      <c r="G86">
+        <v>52</v>
+      </c>
+      <c r="H86">
+        <v>0.30769230769230699</v>
+      </c>
+      <c r="I86">
+        <v>86</v>
+      </c>
+      <c r="J86" s="19">
+        <v>0.50887573964497002</v>
+      </c>
+      <c r="K86">
+        <v>0.414201183431952</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87">
+        <v>275</v>
+      </c>
+      <c r="C87">
+        <v>21</v>
+      </c>
+      <c r="D87">
+        <v>7.63636363636363E-2</v>
+      </c>
+      <c r="E87">
+        <v>11</v>
+      </c>
+      <c r="F87">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="G87">
+        <v>6</v>
+      </c>
+      <c r="H87">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="I87">
+        <v>11</v>
+      </c>
+      <c r="J87" s="19">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="K87">
+        <v>0.52380952380952295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88">
+        <v>190</v>
+      </c>
+      <c r="C88">
+        <v>4</v>
+      </c>
+      <c r="D88">
+        <v>2.1052631578947299E-2</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0.25</v>
+      </c>
+      <c r="I88">
+        <v>4</v>
+      </c>
+      <c r="J88" s="19">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>139</v>
+      </c>
+      <c r="B89">
+        <v>1000</v>
+      </c>
+      <c r="C89">
+        <v>846</v>
+      </c>
+      <c r="D89">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="E89">
+        <v>784</v>
+      </c>
+      <c r="F89">
+        <v>0.92671394799054296</v>
+      </c>
+      <c r="G89">
+        <v>747</v>
+      </c>
+      <c r="H89">
+        <v>0.88297872340425498</v>
+      </c>
+      <c r="I89">
+        <v>797</v>
+      </c>
+      <c r="J89" s="19">
+        <v>0.94208037825059099</v>
+      </c>
+      <c r="K89">
+        <v>0.92671394799054296</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>138</v>
+      </c>
+      <c r="B90">
+        <v>1000</v>
+      </c>
+      <c r="C90">
+        <v>286</v>
+      </c>
+      <c r="D90">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="E90">
+        <v>26</v>
+      </c>
+      <c r="F90">
+        <v>9.0909090909090898E-2</v>
+      </c>
+      <c r="G90">
+        <v>232</v>
+      </c>
+      <c r="H90">
+        <v>0.81118881118881103</v>
+      </c>
+      <c r="I90">
+        <v>237</v>
+      </c>
+      <c r="J90" s="19">
+        <v>0.82867132867132798</v>
+      </c>
+      <c r="K90">
+        <v>0.81118881118881103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91">
+        <v>1000</v>
+      </c>
+      <c r="C91">
+        <v>281</v>
+      </c>
+      <c r="D91">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="E91">
+        <v>166</v>
+      </c>
+      <c r="F91">
+        <v>0.59074733096085397</v>
+      </c>
+      <c r="G91">
+        <v>149</v>
+      </c>
+      <c r="H91">
+        <v>0.53024911032028399</v>
+      </c>
+      <c r="I91">
+        <v>178</v>
+      </c>
+      <c r="J91" s="19">
+        <v>0.63345195729537296</v>
+      </c>
+      <c r="K91">
+        <v>0.59074733096085397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J94" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K94" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>1000</v>
+      </c>
+      <c r="C95">
+        <v>227</v>
+      </c>
+      <c r="D95">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E95">
+        <v>100</v>
+      </c>
+      <c r="F95">
+        <v>0.44052863436123302</v>
+      </c>
+      <c r="G95">
+        <v>64</v>
+      </c>
+      <c r="H95">
+        <v>0.28193832599118901</v>
+      </c>
+      <c r="I95">
+        <v>103</v>
+      </c>
+      <c r="J95" s="19">
+        <v>0.45374449339207001</v>
+      </c>
+      <c r="K95">
+        <v>0.44052863436123302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>145</v>
+      </c>
+      <c r="B96">
+        <v>702</v>
+      </c>
+      <c r="C96">
+        <v>245</v>
+      </c>
+      <c r="D96">
+        <v>0.349002849002849</v>
+      </c>
+      <c r="E96">
+        <v>98</v>
+      </c>
+      <c r="F96">
+        <v>0.4</v>
+      </c>
+      <c r="G96">
+        <v>92</v>
+      </c>
+      <c r="H96">
+        <v>0.37551020408163199</v>
+      </c>
+      <c r="I96">
+        <v>112</v>
+      </c>
+      <c r="J96" s="19">
+        <v>0.45714285714285702</v>
+      </c>
+      <c r="K96">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97">
+        <v>122</v>
+      </c>
+      <c r="C97">
+        <v>26</v>
+      </c>
+      <c r="D97">
+        <v>0.21311475409836</v>
+      </c>
+      <c r="E97">
+        <v>21</v>
+      </c>
+      <c r="F97">
+        <v>0.80769230769230704</v>
+      </c>
+      <c r="G97">
+        <v>20</v>
+      </c>
+      <c r="H97">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I97">
+        <v>22</v>
+      </c>
+      <c r="J97" s="19">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="K97">
+        <v>0.80769230769230704</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>143</v>
+      </c>
+      <c r="B98">
+        <v>78</v>
+      </c>
+      <c r="C98">
+        <v>13</v>
+      </c>
+      <c r="D98">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="E98">
+        <v>11</v>
+      </c>
+      <c r="F98">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="I98">
+        <v>11</v>
+      </c>
+      <c r="J98" s="19">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="K98">
+        <v>0.84615384615384603</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>142</v>
+      </c>
+      <c r="B99">
+        <v>595</v>
+      </c>
+      <c r="C99">
+        <v>158</v>
+      </c>
+      <c r="D99">
+        <v>0.26554621848739401</v>
+      </c>
+      <c r="E99">
+        <v>63</v>
+      </c>
+      <c r="F99">
+        <v>0.398734177215189</v>
+      </c>
+      <c r="G99">
+        <v>51</v>
+      </c>
+      <c r="H99">
+        <v>0.322784810126582</v>
+      </c>
+      <c r="I99">
+        <v>79</v>
+      </c>
+      <c r="J99" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="K99">
+        <v>0.398734177215189</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100">
+        <v>275</v>
+      </c>
+      <c r="C100">
+        <v>33</v>
+      </c>
+      <c r="D100">
+        <v>0.12</v>
+      </c>
+      <c r="E100">
+        <v>21</v>
+      </c>
+      <c r="F100">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="G100">
+        <v>6</v>
+      </c>
+      <c r="H100">
+        <v>0.18181818181818099</v>
+      </c>
+      <c r="I100">
+        <v>21</v>
+      </c>
+      <c r="J100" s="19">
+        <v>0.63636363636363602</v>
+      </c>
+      <c r="K100">
+        <v>0.63636363636363602</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>140</v>
+      </c>
+      <c r="B101">
+        <v>190</v>
+      </c>
+      <c r="C101">
+        <v>3</v>
+      </c>
+      <c r="D101">
+        <v>1.5789473684210499E-2</v>
+      </c>
+      <c r="E101">
+        <v>3</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101" s="19">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>139</v>
+      </c>
+      <c r="B102">
+        <v>1000</v>
+      </c>
+      <c r="C102">
+        <v>898</v>
+      </c>
+      <c r="D102">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E102">
+        <v>828</v>
+      </c>
+      <c r="F102">
+        <v>0.92204899777282801</v>
+      </c>
+      <c r="G102">
+        <v>787</v>
+      </c>
+      <c r="H102">
+        <v>0.87639198218262804</v>
+      </c>
+      <c r="I102">
+        <v>839</v>
+      </c>
+      <c r="J102" s="19">
+        <v>0.93429844097995496</v>
+      </c>
+      <c r="K102">
+        <v>0.92204899777282801</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>138</v>
+      </c>
+      <c r="B103">
+        <v>1000</v>
+      </c>
+      <c r="C103">
+        <v>279</v>
+      </c>
+      <c r="D103">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E103">
+        <v>24</v>
+      </c>
+      <c r="F103">
+        <v>8.6021505376343996E-2</v>
+      </c>
+      <c r="G103">
+        <v>242</v>
+      </c>
+      <c r="H103">
+        <v>0.86738351254480195</v>
+      </c>
+      <c r="I103">
+        <v>242</v>
+      </c>
+      <c r="J103" s="19">
+        <v>0.86738351254480195</v>
+      </c>
+      <c r="K103">
+        <v>0.86738351254480195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>137</v>
+      </c>
+      <c r="B104">
+        <v>1000</v>
+      </c>
+      <c r="C104">
+        <v>227</v>
+      </c>
+      <c r="D104">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E104">
+        <v>144</v>
+      </c>
+      <c r="F104">
+        <v>0.63436123348017603</v>
+      </c>
+      <c r="G104">
+        <v>128</v>
+      </c>
+      <c r="H104">
+        <v>0.56387665198237802</v>
+      </c>
+      <c r="I104">
+        <v>157</v>
+      </c>
+      <c r="J104" s="19">
+        <v>0.69162995594713605</v>
+      </c>
+      <c r="K104">
+        <v>0.63436123348017603</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B106" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D106" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E106" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" s="30">
+        <v>1000</v>
+      </c>
+      <c r="C107" s="30">
+        <v>224</v>
+      </c>
+      <c r="D107" s="30">
+        <v>106</v>
+      </c>
+      <c r="E107" s="20">
+        <v>0.47320000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="B108" s="30">
+        <v>702</v>
+      </c>
+      <c r="C108" s="30">
+        <v>144</v>
+      </c>
+      <c r="D108" s="30">
+        <v>68</v>
+      </c>
+      <c r="E108" s="20">
+        <v>0.47220000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" s="30">
+        <v>122</v>
+      </c>
+      <c r="C109" s="30">
+        <v>23</v>
+      </c>
+      <c r="D109" s="30">
+        <v>22</v>
+      </c>
+      <c r="E109" s="20">
+        <v>0.95650000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="30">
+        <v>78</v>
+      </c>
+      <c r="C110" s="30">
+        <v>12</v>
+      </c>
+      <c r="D110" s="30">
+        <v>10</v>
+      </c>
+      <c r="E110" s="20">
+        <v>0.83330000000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B111" s="30">
+        <v>595</v>
+      </c>
+      <c r="C111" s="30">
+        <v>130</v>
+      </c>
+      <c r="D111" s="30">
+        <v>81</v>
+      </c>
+      <c r="E111" s="20">
+        <v>0.62309999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="B112" s="30">
+        <v>275</v>
+      </c>
+      <c r="C112" s="30">
+        <v>30</v>
+      </c>
+      <c r="D112" s="30">
+        <v>11</v>
+      </c>
+      <c r="E112" s="20">
+        <v>0.36670000000000003</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" s="30">
+        <v>190</v>
+      </c>
+      <c r="C113" s="30">
+        <v>4</v>
+      </c>
+      <c r="D113" s="30">
+        <v>4</v>
+      </c>
+      <c r="E113" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B114" s="30">
+        <v>1000</v>
+      </c>
+      <c r="C114" s="30">
+        <v>855</v>
+      </c>
+      <c r="D114" s="30">
+        <v>811</v>
+      </c>
+      <c r="E114" s="20">
+        <v>0.94850000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="B115" s="30">
+        <v>1000</v>
+      </c>
+      <c r="C115" s="30">
+        <v>295</v>
+      </c>
+      <c r="D115" s="30">
+        <v>242</v>
+      </c>
+      <c r="E115" s="20">
+        <v>0.82030000000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="B116" s="30">
+        <v>1000</v>
+      </c>
+      <c r="C116" s="30">
+        <v>237</v>
+      </c>
+      <c r="D116" s="30">
+        <v>151</v>
+      </c>
+      <c r="E116" s="20">
+        <v>0.6371</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="30"/>
+      <c r="B117" s="30"/>
+      <c r="C117" s="30"/>
+      <c r="D117" s="30"/>
+      <c r="E117" s="30"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D119" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I119" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J119" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K119" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>1000</v>
+      </c>
+      <c r="C120">
+        <v>225</v>
+      </c>
+      <c r="D120">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E120">
+        <v>103</v>
+      </c>
+      <c r="F120">
+        <v>0.45777777777777701</v>
+      </c>
+      <c r="G120">
+        <v>64</v>
+      </c>
+      <c r="H120">
+        <v>0.284444444444444</v>
+      </c>
+      <c r="I120">
+        <v>106</v>
+      </c>
+      <c r="J120" s="19">
+        <v>0.47111111111111098</v>
+      </c>
+      <c r="K120">
+        <v>0.45777777777777701</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>145</v>
+      </c>
+      <c r="B121">
+        <v>702</v>
+      </c>
+      <c r="C121">
+        <v>296</v>
+      </c>
+      <c r="D121">
+        <v>0.42165242165242101</v>
+      </c>
+      <c r="E121">
+        <v>120</v>
+      </c>
+      <c r="F121">
+        <v>0.40540540540540498</v>
+      </c>
+      <c r="G121">
+        <v>91</v>
+      </c>
+      <c r="H121">
+        <v>0.30743243243243201</v>
+      </c>
+      <c r="I121">
+        <v>132</v>
+      </c>
+      <c r="J121" s="19">
+        <v>0.445945945945945</v>
+      </c>
+      <c r="K121">
+        <v>0.40540540540540498</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>144</v>
+      </c>
+      <c r="B122">
+        <v>122</v>
+      </c>
+      <c r="C122">
+        <v>26</v>
+      </c>
+      <c r="D122">
+        <v>0.21311475409836</v>
+      </c>
+      <c r="E122">
+        <v>21</v>
+      </c>
+      <c r="F122">
+        <v>0.80769230769230704</v>
+      </c>
+      <c r="G122">
+        <v>20</v>
+      </c>
+      <c r="H122">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I122">
+        <v>22</v>
+      </c>
+      <c r="J122" s="19">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="K122">
+        <v>0.80769230769230704</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123">
+        <v>78</v>
+      </c>
+      <c r="C123">
+        <v>11</v>
+      </c>
+      <c r="D123">
+        <v>0.141025641025641</v>
+      </c>
+      <c r="E123">
+        <v>9</v>
+      </c>
+      <c r="F123">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="I123">
+        <v>9</v>
+      </c>
+      <c r="J123" s="19">
+        <v>0.81818181818181801</v>
+      </c>
+      <c r="K123">
+        <v>0.81818181818181801</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>142</v>
+      </c>
+      <c r="B124">
+        <v>595</v>
+      </c>
+      <c r="C124">
+        <v>182</v>
+      </c>
+      <c r="D124">
+        <v>0.30588235294117599</v>
+      </c>
+      <c r="E124">
+        <v>75</v>
+      </c>
+      <c r="F124">
+        <v>0.41208791208791201</v>
+      </c>
+      <c r="G124">
+        <v>54</v>
+      </c>
+      <c r="H124">
+        <v>0.29670329670329598</v>
+      </c>
+      <c r="I124">
+        <v>92</v>
+      </c>
+      <c r="J124" s="19">
+        <v>0.50549450549450503</v>
+      </c>
+      <c r="K124">
+        <v>0.41208791208791201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>141</v>
+      </c>
+      <c r="B125">
+        <v>275</v>
+      </c>
+      <c r="C125">
+        <v>18</v>
+      </c>
+      <c r="D125">
+        <v>6.5454545454545404E-2</v>
+      </c>
+      <c r="E125">
+        <v>11</v>
+      </c>
+      <c r="F125">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="G125">
+        <v>9</v>
+      </c>
+      <c r="H125">
+        <v>0.5</v>
+      </c>
+      <c r="I125">
+        <v>11</v>
+      </c>
+      <c r="J125" s="19">
+        <v>0.61111111111111105</v>
+      </c>
+      <c r="K125">
+        <v>0.61111111111111105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>140</v>
+      </c>
+      <c r="B126">
+        <v>190</v>
+      </c>
+      <c r="C126">
+        <v>4</v>
+      </c>
+      <c r="D126">
+        <v>2.1052631578947299E-2</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>0.25</v>
+      </c>
+      <c r="I126">
+        <v>4</v>
+      </c>
+      <c r="J126" s="19">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>139</v>
+      </c>
+      <c r="B127">
+        <v>1000</v>
+      </c>
+      <c r="C127">
+        <v>812</v>
+      </c>
+      <c r="D127">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="E127">
+        <v>751</v>
+      </c>
+      <c r="F127">
+        <v>0.92487684729064001</v>
+      </c>
+      <c r="G127">
+        <v>719</v>
+      </c>
+      <c r="H127">
+        <v>0.88546798029556595</v>
+      </c>
+      <c r="I127">
+        <v>762</v>
+      </c>
+      <c r="J127" s="19">
+        <v>0.93842364532019695</v>
+      </c>
+      <c r="K127">
+        <v>0.92487684729064001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>138</v>
+      </c>
+      <c r="B128">
+        <v>1000</v>
+      </c>
+      <c r="C128">
+        <v>451</v>
+      </c>
+      <c r="D128">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="E128">
+        <v>33</v>
+      </c>
+      <c r="F128">
+        <v>7.3170731707316999E-2</v>
+      </c>
+      <c r="G128">
+        <v>289</v>
+      </c>
+      <c r="H128">
+        <v>0.640798226164079</v>
+      </c>
+      <c r="I128">
+        <v>293</v>
+      </c>
+      <c r="J128" s="19">
+        <v>0.64966740576496596</v>
+      </c>
+      <c r="K128">
+        <v>0.640798226164079</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129">
+        <v>1000</v>
+      </c>
+      <c r="C129">
+        <v>201</v>
+      </c>
+      <c r="D129">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="E129">
+        <v>135</v>
+      </c>
+      <c r="F129">
+        <v>0.67164179104477595</v>
+      </c>
+      <c r="G129">
+        <v>120</v>
+      </c>
+      <c r="H129">
+        <v>0.59701492537313405</v>
+      </c>
+      <c r="I129">
+        <v>145</v>
+      </c>
+      <c r="J129" s="19">
+        <v>0.72139303482587003</v>
+      </c>
+      <c r="K129">
+        <v>0.67164179104477595</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I132" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J132" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K132" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>1000</v>
+      </c>
+      <c r="C133">
+        <v>229</v>
+      </c>
+      <c r="D133">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E133">
+        <v>105</v>
+      </c>
+      <c r="F133">
+        <v>0.458515283842794</v>
+      </c>
+      <c r="G133">
+        <v>67</v>
+      </c>
+      <c r="H133">
+        <v>0.29257641921397298</v>
+      </c>
+      <c r="I133">
+        <v>108</v>
+      </c>
+      <c r="J133" s="19">
+        <v>0.47161572052401701</v>
+      </c>
+      <c r="K133">
+        <v>0.458515283842794</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>145</v>
+      </c>
+      <c r="B134">
+        <v>702</v>
+      </c>
+      <c r="C134">
+        <v>270</v>
+      </c>
+      <c r="D134">
+        <v>0.38461538461538403</v>
+      </c>
+      <c r="E134">
+        <v>107</v>
+      </c>
+      <c r="F134">
+        <v>0.39629629629629598</v>
+      </c>
+      <c r="G134">
+        <v>106</v>
+      </c>
+      <c r="H134">
+        <v>0.39259259259259199</v>
+      </c>
+      <c r="I134">
+        <v>123</v>
+      </c>
+      <c r="J134" s="19">
+        <v>0.45555555555555499</v>
+      </c>
+      <c r="K134">
+        <v>0.39629629629629598</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135">
+        <v>122</v>
+      </c>
+      <c r="C135">
+        <v>25</v>
+      </c>
+      <c r="D135">
+        <v>0.204918032786885</v>
+      </c>
+      <c r="E135">
+        <v>22</v>
+      </c>
+      <c r="F135">
+        <v>0.88</v>
+      </c>
+      <c r="G135">
+        <v>21</v>
+      </c>
+      <c r="H135">
+        <v>0.84</v>
+      </c>
+      <c r="I135">
+        <v>23</v>
+      </c>
+      <c r="J135" s="19">
+        <v>0.92</v>
+      </c>
+      <c r="K135">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136">
+        <v>78</v>
+      </c>
+      <c r="C136">
+        <v>9</v>
+      </c>
+      <c r="D136">
+        <v>0.115384615384615</v>
+      </c>
+      <c r="E136">
+        <v>7</v>
+      </c>
+      <c r="F136">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="I136">
+        <v>7</v>
+      </c>
+      <c r="J136" s="19">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="K136">
+        <v>0.77777777777777701</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>142</v>
+      </c>
+      <c r="B137">
+        <v>595</v>
+      </c>
+      <c r="C137">
+        <v>142</v>
+      </c>
+      <c r="D137">
+        <v>0.23865546218487299</v>
+      </c>
+      <c r="E137">
+        <v>69</v>
+      </c>
+      <c r="F137">
+        <v>0.485915492957746</v>
+      </c>
+      <c r="G137">
+        <v>51</v>
+      </c>
+      <c r="H137">
+        <v>0.35915492957746398</v>
+      </c>
+      <c r="I137">
+        <v>84</v>
+      </c>
+      <c r="J137" s="19">
+        <v>0.59154929577464699</v>
+      </c>
+      <c r="K137">
+        <v>0.485915492957746</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138">
+        <v>275</v>
+      </c>
+      <c r="C138">
+        <v>21</v>
+      </c>
+      <c r="D138">
+        <v>7.63636363636363E-2</v>
+      </c>
+      <c r="E138">
+        <v>11</v>
+      </c>
+      <c r="F138">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="G138">
+        <v>6</v>
+      </c>
+      <c r="H138">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="I138">
+        <v>11</v>
+      </c>
+      <c r="J138" s="19">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="K138">
+        <v>0.52380952380952295</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>156</v>
+      </c>
+      <c r="B139">
+        <v>18</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>0.16666666666666599</v>
+      </c>
+      <c r="E139">
+        <v>3</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+      <c r="H139">
+        <v>1</v>
+      </c>
+      <c r="I139">
+        <v>3</v>
+      </c>
+      <c r="J139" s="19">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>190</v>
+      </c>
+      <c r="C140">
+        <v>14</v>
+      </c>
+      <c r="D140">
+        <v>7.3684210526315699E-2</v>
+      </c>
+      <c r="E140">
+        <v>14</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140">
+        <v>11</v>
+      </c>
+      <c r="H140">
+        <v>0.78571428571428503</v>
+      </c>
+      <c r="I140">
+        <v>14</v>
+      </c>
+      <c r="J140" s="19">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>1000</v>
+      </c>
+      <c r="C141">
+        <v>905</v>
+      </c>
+      <c r="D141">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="E141">
+        <v>823</v>
+      </c>
+      <c r="F141">
+        <v>0.90939226519337002</v>
+      </c>
+      <c r="G141">
+        <v>786</v>
+      </c>
+      <c r="H141">
+        <v>0.86850828729281704</v>
+      </c>
+      <c r="I141">
+        <v>836</v>
+      </c>
+      <c r="J141" s="19">
+        <v>0.92375690607734795</v>
+      </c>
+      <c r="K141">
+        <v>0.90939226519337002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>138</v>
+      </c>
+      <c r="B142">
+        <v>1000</v>
+      </c>
+      <c r="C142">
+        <v>288</v>
+      </c>
+      <c r="D142">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="E142">
+        <v>24</v>
+      </c>
+      <c r="F142">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="G142">
+        <v>234</v>
+      </c>
+      <c r="H142">
+        <v>0.8125</v>
+      </c>
+      <c r="I142">
+        <v>235</v>
+      </c>
+      <c r="J142" s="19">
+        <v>0.81597222222222199</v>
+      </c>
+      <c r="K142">
+        <v>0.8125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>137</v>
+      </c>
+      <c r="B143">
+        <v>1000</v>
+      </c>
+      <c r="C143">
+        <v>291</v>
+      </c>
+      <c r="D143">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="E143">
+        <v>167</v>
+      </c>
+      <c r="F143">
+        <v>0.57388316151202701</v>
+      </c>
+      <c r="G143">
+        <v>151</v>
+      </c>
+      <c r="H143">
+        <v>0.51890034364261095</v>
+      </c>
+      <c r="I143">
+        <v>181</v>
+      </c>
+      <c r="J143" s="19">
+        <v>0.621993127147766</v>
+      </c>
+      <c r="K143">
+        <v>0.57388316151202701</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I146" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J146" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K146" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>1000</v>
+      </c>
+      <c r="C147">
+        <v>225</v>
+      </c>
+      <c r="D147">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="E147">
+        <v>103</v>
+      </c>
+      <c r="F147">
+        <v>0.45777777777777701</v>
+      </c>
+      <c r="G147">
+        <v>65</v>
+      </c>
+      <c r="H147">
+        <v>0.28888888888888797</v>
+      </c>
+      <c r="I147">
+        <v>106</v>
+      </c>
+      <c r="J147" s="19">
+        <v>0.47111111111111098</v>
+      </c>
+      <c r="K147">
+        <v>0.45777777777777701</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>145</v>
+      </c>
+      <c r="B148">
+        <v>702</v>
+      </c>
+      <c r="C148">
+        <v>199</v>
+      </c>
+      <c r="D148">
+        <v>0.28347578347578301</v>
+      </c>
+      <c r="E148">
+        <v>77</v>
+      </c>
+      <c r="F148">
+        <v>0.38693467336683401</v>
+      </c>
+      <c r="G148">
+        <v>72</v>
+      </c>
+      <c r="H148">
+        <v>0.36180904522613</v>
+      </c>
+      <c r="I148">
+        <v>87</v>
+      </c>
+      <c r="J148" s="19">
+        <v>0.43718592964824099</v>
+      </c>
+      <c r="K148">
+        <v>0.38693467336683401</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>144</v>
+      </c>
+      <c r="B149">
+        <v>122</v>
+      </c>
+      <c r="C149">
+        <v>26</v>
+      </c>
+      <c r="D149">
+        <v>0.21311475409836</v>
+      </c>
+      <c r="E149">
+        <v>21</v>
+      </c>
+      <c r="F149">
+        <v>0.80769230769230704</v>
+      </c>
+      <c r="G149">
+        <v>20</v>
+      </c>
+      <c r="H149">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I149">
+        <v>22</v>
+      </c>
+      <c r="J149" s="19">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="K149">
+        <v>0.80769230769230704</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>143</v>
+      </c>
+      <c r="B150">
+        <v>78</v>
+      </c>
+      <c r="C150">
+        <v>18</v>
+      </c>
+      <c r="D150">
+        <v>0.23076923076923</v>
+      </c>
+      <c r="E150">
+        <v>10</v>
+      </c>
+      <c r="F150">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="I150">
+        <v>10</v>
+      </c>
+      <c r="J150" s="19">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="K150">
+        <v>0.55555555555555503</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>142</v>
+      </c>
+      <c r="B151">
+        <v>595</v>
+      </c>
+      <c r="C151">
+        <v>142</v>
+      </c>
+      <c r="D151">
+        <v>0.23865546218487299</v>
+      </c>
+      <c r="E151">
+        <v>65</v>
+      </c>
+      <c r="F151">
+        <v>0.45774647887323899</v>
+      </c>
+      <c r="G151">
+        <v>51</v>
+      </c>
+      <c r="H151">
+        <v>0.35915492957746398</v>
+      </c>
+      <c r="I151">
+        <v>81</v>
+      </c>
+      <c r="J151" s="19">
+        <v>0.57042253521126696</v>
+      </c>
+      <c r="K151">
+        <v>0.45774647887323899</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>141</v>
+      </c>
+      <c r="B152">
+        <v>275</v>
+      </c>
+      <c r="C152">
+        <v>43</v>
+      </c>
+      <c r="D152">
+        <v>0.15636363636363601</v>
+      </c>
+      <c r="E152">
+        <v>21</v>
+      </c>
+      <c r="F152">
+        <v>0.48837209302325502</v>
+      </c>
+      <c r="G152">
+        <v>6</v>
+      </c>
+      <c r="H152">
+        <v>0.13953488372093001</v>
+      </c>
+      <c r="I152">
+        <v>21</v>
+      </c>
+      <c r="J152" s="19">
+        <v>0.48837209302325502</v>
+      </c>
+      <c r="K152">
+        <v>0.48837209302325502</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>140</v>
+      </c>
+      <c r="B153">
+        <v>190</v>
+      </c>
+      <c r="C153">
+        <v>24</v>
+      </c>
+      <c r="D153">
+        <v>0.12631578947368399</v>
+      </c>
+      <c r="E153">
+        <v>24</v>
+      </c>
+      <c r="F153">
+        <v>1</v>
+      </c>
+      <c r="G153">
+        <v>21</v>
+      </c>
+      <c r="H153">
+        <v>0.875</v>
+      </c>
+      <c r="I153">
+        <v>24</v>
+      </c>
+      <c r="J153" s="19">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>139</v>
+      </c>
+      <c r="B154">
+        <v>1000</v>
+      </c>
+      <c r="C154">
+        <v>796</v>
+      </c>
+      <c r="D154">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="E154">
+        <v>740</v>
+      </c>
+      <c r="F154">
+        <v>0.92964824120602996</v>
+      </c>
+      <c r="G154">
+        <v>715</v>
+      </c>
+      <c r="H154">
+        <v>0.89824120603015001</v>
+      </c>
+      <c r="I154">
+        <v>752</v>
+      </c>
+      <c r="J154" s="19">
+        <v>0.94472361809045202</v>
+      </c>
+      <c r="K154">
+        <v>0.92964824120602996</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>138</v>
+      </c>
+      <c r="B155">
+        <v>1000</v>
+      </c>
+      <c r="C155">
+        <v>418</v>
+      </c>
+      <c r="D155">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="E155">
+        <v>31</v>
+      </c>
+      <c r="F155">
+        <v>7.4162679425837305E-2</v>
+      </c>
+      <c r="G155">
+        <v>293</v>
+      </c>
+      <c r="H155">
+        <v>0.700956937799043</v>
+      </c>
+      <c r="I155">
+        <v>297</v>
+      </c>
+      <c r="J155" s="19">
+        <v>0.71052631578947301</v>
+      </c>
+      <c r="K155">
+        <v>0.700956937799043</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>137</v>
+      </c>
+      <c r="B156">
+        <v>1000</v>
+      </c>
+      <c r="C156">
+        <v>221</v>
+      </c>
+      <c r="D156">
+        <v>0.221</v>
+      </c>
+      <c r="E156">
+        <v>141</v>
+      </c>
+      <c r="F156">
+        <v>0.63800904977375505</v>
+      </c>
+      <c r="G156">
+        <v>129</v>
+      </c>
+      <c r="H156">
+        <v>0.58371040723981904</v>
+      </c>
+      <c r="I156">
+        <v>149</v>
+      </c>
+      <c r="J156" s="19">
+        <v>0.67420814479638003</v>
+      </c>
+      <c r="K156">
+        <v>0.63800904977375505</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D159" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E159" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F159" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G159" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H159" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I159" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J159" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K159" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>1000</v>
+      </c>
+      <c r="C160">
+        <v>229</v>
+      </c>
+      <c r="D160">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="E160">
+        <v>103</v>
+      </c>
+      <c r="F160">
+        <v>0.449781659388646</v>
+      </c>
+      <c r="G160">
+        <v>66</v>
+      </c>
+      <c r="H160">
+        <v>0.28820960698689901</v>
+      </c>
+      <c r="I160">
+        <v>108</v>
+      </c>
+      <c r="J160" s="19">
+        <v>0.47161572052401701</v>
+      </c>
+      <c r="K160">
+        <v>0.449781659388646</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>145</v>
+      </c>
+      <c r="B161">
+        <v>702</v>
+      </c>
+      <c r="C161">
+        <v>201</v>
+      </c>
+      <c r="D161">
+        <v>0.28632478632478597</v>
+      </c>
+      <c r="E161">
+        <v>91</v>
+      </c>
+      <c r="F161">
+        <v>0.45273631840796003</v>
+      </c>
+      <c r="G161">
+        <v>82</v>
+      </c>
+      <c r="H161">
+        <v>0.40796019900497499</v>
+      </c>
+      <c r="I161">
+        <v>101</v>
+      </c>
+      <c r="J161" s="19">
+        <v>0.50248756218905399</v>
+      </c>
+      <c r="K161">
+        <v>0.45273631840796003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>144</v>
+      </c>
+      <c r="B162">
+        <v>122</v>
+      </c>
+      <c r="C162">
+        <v>25</v>
+      </c>
+      <c r="D162">
+        <v>0.204918032786885</v>
+      </c>
+      <c r="E162">
+        <v>21</v>
+      </c>
+      <c r="F162">
+        <v>0.84</v>
+      </c>
+      <c r="G162">
+        <v>20</v>
+      </c>
+      <c r="H162">
+        <v>0.8</v>
+      </c>
+      <c r="I162">
+        <v>22</v>
+      </c>
+      <c r="J162" s="19">
+        <v>0.88</v>
+      </c>
+      <c r="K162">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>143</v>
+      </c>
+      <c r="B163">
+        <v>78</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163">
+        <v>1.2820512820512799E-2</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>1</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" s="19">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>142</v>
+      </c>
+      <c r="B164">
+        <v>595</v>
+      </c>
+      <c r="C164">
+        <v>144</v>
+      </c>
+      <c r="D164">
+        <v>0.24201680672268899</v>
+      </c>
+      <c r="E164">
+        <v>69</v>
+      </c>
+      <c r="F164">
+        <v>0.47916666666666602</v>
+      </c>
+      <c r="G164">
+        <v>53</v>
+      </c>
+      <c r="H164">
+        <v>0.36805555555555503</v>
+      </c>
+      <c r="I164">
+        <v>86</v>
+      </c>
+      <c r="J164" s="19">
+        <v>0.59722222222222199</v>
+      </c>
+      <c r="K164">
+        <v>0.47916666666666602</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>141</v>
+      </c>
+      <c r="B165">
+        <v>275</v>
+      </c>
+      <c r="C165">
+        <v>19</v>
+      </c>
+      <c r="D165">
+        <v>6.9090909090908995E-2</v>
+      </c>
+      <c r="E165">
+        <v>11</v>
+      </c>
+      <c r="F165">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="G165">
+        <v>9</v>
+      </c>
+      <c r="H165">
+        <v>0.47368421052631499</v>
+      </c>
+      <c r="I165">
+        <v>11</v>
+      </c>
+      <c r="J165" s="19">
+        <v>0.57894736842105199</v>
+      </c>
+      <c r="K165">
+        <v>0.57894736842105199</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>140</v>
+      </c>
+      <c r="B166">
+        <v>190</v>
+      </c>
+      <c r="C166">
+        <v>24</v>
+      </c>
+      <c r="D166">
+        <v>0.12631578947368399</v>
+      </c>
+      <c r="E166">
+        <v>24</v>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>21</v>
+      </c>
+      <c r="H166">
+        <v>0.875</v>
+      </c>
+      <c r="I166">
+        <v>24</v>
+      </c>
+      <c r="J166" s="19">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>139</v>
+      </c>
+      <c r="B167">
+        <v>1000</v>
+      </c>
+      <c r="C167">
+        <v>817</v>
+      </c>
+      <c r="D167">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="E167">
+        <v>756</v>
+      </c>
+      <c r="F167">
+        <v>0.92533659730722095</v>
+      </c>
+      <c r="G167">
+        <v>723</v>
+      </c>
+      <c r="H167">
+        <v>0.884944920440636</v>
+      </c>
+      <c r="I167">
+        <v>769</v>
+      </c>
+      <c r="J167" s="19">
+        <v>0.94124847001223899</v>
+      </c>
+      <c r="K167">
+        <v>0.92533659730722095</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>138</v>
+      </c>
+      <c r="B168">
+        <v>1000</v>
+      </c>
+      <c r="C168">
+        <v>317</v>
+      </c>
+      <c r="D168">
+        <v>0.317</v>
+      </c>
+      <c r="E168">
+        <v>30</v>
+      </c>
+      <c r="F168">
+        <v>9.4637223974763401E-2</v>
+      </c>
+      <c r="G168">
+        <v>268</v>
+      </c>
+      <c r="H168">
+        <v>0.84542586750788595</v>
+      </c>
+      <c r="I168">
+        <v>269</v>
+      </c>
+      <c r="J168" s="19">
+        <v>0.84858044164037805</v>
+      </c>
+      <c r="K168">
+        <v>0.84542586750788595</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>137</v>
+      </c>
+      <c r="B169">
+        <v>1000</v>
+      </c>
+      <c r="C169">
+        <v>211</v>
+      </c>
+      <c r="D169">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="E169">
+        <v>133</v>
+      </c>
+      <c r="F169">
+        <v>0.63033175355450199</v>
+      </c>
+      <c r="G169">
+        <v>122</v>
+      </c>
+      <c r="H169">
+        <v>0.57819905213270095</v>
+      </c>
+      <c r="I169">
+        <v>143</v>
+      </c>
+      <c r="J169" s="19">
+        <v>0.67772511848341199</v>
+      </c>
+      <c r="K169">
+        <v>0.63033175355450199</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A172" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B172" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D172" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="E172" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F172" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G172" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="H172" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I172" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J172" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="K172" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173">
+        <v>1000</v>
+      </c>
+      <c r="C173">
+        <v>231</v>
+      </c>
+      <c r="D173">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="E173">
+        <v>104</v>
+      </c>
+      <c r="F173">
+        <v>0.45021645021645001</v>
+      </c>
+      <c r="G173">
+        <v>66</v>
+      </c>
+      <c r="H173">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="I173">
+        <v>107</v>
+      </c>
+      <c r="J173" s="19">
+        <v>0.46320346320346301</v>
+      </c>
+      <c r="K173">
+        <v>0.45021645021645001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>145</v>
+      </c>
+      <c r="B174">
+        <v>702</v>
+      </c>
+      <c r="C174">
+        <v>301</v>
+      </c>
+      <c r="D174">
+        <v>0.42877492877492801</v>
+      </c>
+      <c r="E174">
+        <v>119</v>
+      </c>
+      <c r="F174">
+        <v>0.39534883720930197</v>
+      </c>
+      <c r="G174">
+        <v>109</v>
+      </c>
+      <c r="H174">
+        <v>0.36212624584717601</v>
+      </c>
+      <c r="I174">
+        <v>135</v>
+      </c>
+      <c r="J174" s="19">
+        <v>0.44850498338870398</v>
+      </c>
+      <c r="K174">
+        <v>0.39534883720930197</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>144</v>
+      </c>
+      <c r="B175">
+        <v>122</v>
+      </c>
+      <c r="C175">
+        <v>26</v>
+      </c>
+      <c r="D175">
+        <v>0.21311475409836</v>
+      </c>
+      <c r="E175">
+        <v>21</v>
+      </c>
+      <c r="F175">
+        <v>0.80769230769230704</v>
+      </c>
+      <c r="G175">
+        <v>20</v>
+      </c>
+      <c r="H175">
+        <v>0.76923076923076905</v>
+      </c>
+      <c r="I175">
+        <v>22</v>
+      </c>
+      <c r="J175" s="19">
+        <v>0.84615384615384603</v>
+      </c>
+      <c r="K175">
+        <v>0.80769230769230704</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>143</v>
+      </c>
+      <c r="B176">
+        <v>78</v>
+      </c>
+      <c r="C176">
+        <v>16</v>
+      </c>
+      <c r="D176">
+        <v>0.20512820512820501</v>
+      </c>
+      <c r="E176">
+        <v>9</v>
+      </c>
+      <c r="F176">
+        <v>0.5625</v>
+      </c>
+      <c r="I176">
+        <v>9</v>
+      </c>
+      <c r="J176" s="19">
+        <v>0.5625</v>
+      </c>
+      <c r="K176">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>142</v>
+      </c>
+      <c r="B177">
+        <v>595</v>
+      </c>
+      <c r="C177">
+        <v>97</v>
+      </c>
+      <c r="D177">
+        <v>0.16302521008403301</v>
+      </c>
+      <c r="E177">
+        <v>55</v>
+      </c>
+      <c r="F177">
+        <v>0.56701030927835006</v>
+      </c>
+      <c r="G177">
+        <v>37</v>
+      </c>
+      <c r="H177">
+        <v>0.38144329896907198</v>
+      </c>
+      <c r="I177">
+        <v>61</v>
+      </c>
+      <c r="J177" s="19">
+        <v>0.62886597938144295</v>
+      </c>
+      <c r="K177">
+        <v>0.56701030927835006</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>141</v>
+      </c>
+      <c r="B178">
+        <v>275</v>
+      </c>
+      <c r="C178">
+        <v>21</v>
+      </c>
+      <c r="D178">
+        <v>7.63636363636363E-2</v>
+      </c>
+      <c r="E178">
+        <v>11</v>
+      </c>
+      <c r="F178">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="G178">
+        <v>9</v>
+      </c>
+      <c r="H178">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="I178">
+        <v>11</v>
+      </c>
+      <c r="J178" s="19">
+        <v>0.52380952380952295</v>
+      </c>
+      <c r="K178">
+        <v>0.52380952380952295</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>140</v>
+      </c>
+      <c r="B179">
+        <v>190</v>
+      </c>
+      <c r="C179">
+        <v>24</v>
+      </c>
+      <c r="D179">
+        <v>0.12631578947368399</v>
+      </c>
+      <c r="E179">
+        <v>24</v>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>21</v>
+      </c>
+      <c r="H179">
+        <v>0.875</v>
+      </c>
+      <c r="I179">
+        <v>24</v>
+      </c>
+      <c r="J179" s="19">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>139</v>
+      </c>
+      <c r="B180">
+        <v>1000</v>
+      </c>
+      <c r="C180">
+        <v>866</v>
+      </c>
+      <c r="D180">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="E180">
+        <v>802</v>
+      </c>
+      <c r="F180">
+        <v>0.926096997690531</v>
+      </c>
+      <c r="G180">
+        <v>759</v>
+      </c>
+      <c r="H180">
+        <v>0.87644341801385595</v>
+      </c>
+      <c r="I180">
+        <v>813</v>
+      </c>
+      <c r="J180" s="19">
+        <v>0.93879907621247105</v>
+      </c>
+      <c r="K180">
+        <v>0.926096997690531</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>138</v>
+      </c>
+      <c r="B181">
+        <v>1000</v>
+      </c>
+      <c r="C181">
+        <v>339</v>
+      </c>
+      <c r="D181">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="E181">
+        <v>28</v>
+      </c>
+      <c r="F181">
+        <v>8.2595870206489605E-2</v>
+      </c>
+      <c r="G181">
+        <v>271</v>
+      </c>
+      <c r="H181">
+        <v>0.79941002949852502</v>
+      </c>
+      <c r="I181">
+        <v>272</v>
+      </c>
+      <c r="J181" s="19">
+        <v>0.80235988200589903</v>
+      </c>
+      <c r="K181">
+        <v>0.79941002949852502</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>137</v>
+      </c>
+      <c r="B182">
+        <v>1000</v>
+      </c>
+      <c r="C182">
+        <v>290</v>
+      </c>
+      <c r="D182">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E182">
+        <v>173</v>
+      </c>
+      <c r="F182">
+        <v>0.59655172413793101</v>
+      </c>
+      <c r="G182">
+        <v>163</v>
+      </c>
+      <c r="H182">
+        <v>0.56206896551724095</v>
+      </c>
+      <c r="I182">
+        <v>186</v>
+      </c>
+      <c r="J182" s="19">
+        <v>0.64137931034482698</v>
+      </c>
+      <c r="K182">
+        <v>0.59655172413793101</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P1:T1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="4">
